--- a/top_plans_geometric_returns.xlsx
+++ b/top_plans_geometric_returns.xlsx
@@ -17,40 +17,40 @@
     <t xml:space="preserve">plan</t>
   </si>
   <si>
-    <t xml:space="preserve">geo_return_20yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mva</t>
+    <t xml:space="preserve">geo_return_23yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mva_2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Retirement Systems, Contributory Retirement System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Retirement Systems, Firefighters Retirement System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah Retirement Systems, Tier 2 Public Employees Contributory Retirement System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota State Retirement System (MSRS) Judges Retirement Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota State Retirement System (MSRS) State Patrol Retirement Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota Public Employees Retirement Association (MPERA) Local Government Correctional Employees Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska County Employees Retirement System</t>
   </si>
   <si>
     <t xml:space="preserve">Kansas Public Employees' Retirement System</t>
   </si>
   <si>
-    <t xml:space="preserve">Houston Municipal Employees Retirement Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston Firefighters' Relief and Retirement Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Public Employees’ Retirement System Plan 1 (Pre-1977)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Law Enforcement Officers’ and Firefighters Retirement System Plan 1  (Pre-1977)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington School Employees Plan 2/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington State Patrol Retirement System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Law Enforcement Officers and Firefighters Plan 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alameda County Employees' Retirement Association</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Teachers Retirement System Plan 1  (Pre-1977)</t>
+    <t xml:space="preserve">Tri-County Metro Of Oregon Bargaining Unit Defined Benefit Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas Judicial Retirement Plan</t>
   </si>
 </sst>
 </file>
@@ -398,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0857686523972012</v>
+        <v>0.115117531699273</v>
       </c>
       <c r="C2" t="n">
-        <v>25800659628</v>
+        <v>1226842000</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0783541880595615</v>
+        <v>0.115117531699273</v>
       </c>
       <c r="C3" t="n">
-        <v>4081744920</v>
+        <v>1815120000</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0779107580815348</v>
+        <v>0.102213448486189</v>
       </c>
       <c r="C4" t="n">
-        <v>5256763000</v>
+        <v>1673551000</v>
       </c>
     </row>
     <row r="5">
@@ -431,10 +431,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0765159698062543</v>
+        <v>0.100837406897798</v>
       </c>
       <c r="C5" t="n">
-        <v>11525479000</v>
+        <v>268987000</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0764037876306374</v>
+        <v>0.0928089303297643</v>
       </c>
       <c r="C6" t="n">
-        <v>7344613000</v>
+        <v>943099000</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0761523617327144</v>
+        <v>0.0919642003464134</v>
       </c>
       <c r="C7" t="n">
-        <v>9428573000</v>
+        <v>1067200000</v>
       </c>
     </row>
     <row r="8">
@@ -464,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0760647203579523</v>
+        <v>0.0882012942465855</v>
       </c>
       <c r="C8" t="n">
-        <v>1795284000</v>
+        <v>664891026</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0759044900059593</v>
+        <v>0.0857686523972012</v>
       </c>
       <c r="C9" t="n">
-        <v>20620418000</v>
+        <v>25800659628</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0753560597790743</v>
+        <v>0.0851986968968603</v>
       </c>
       <c r="C10" t="n">
-        <v>10752506000</v>
+        <v>708822000</v>
       </c>
     </row>
     <row r="11">
@@ -497,10 +497,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0753425464208348</v>
+        <v>0.0832043607418855</v>
       </c>
       <c r="C11" t="n">
-        <v>9735933000</v>
+        <v>308094805</v>
       </c>
     </row>
   </sheetData>
